--- a/data/trans_camb/IP28_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP28_R-Habitat-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>4,38</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>4,13</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,32</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,69</t>
+          <t>2,68</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>3,3</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 2,3</t>
+          <t>0,0; 21,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 1,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 1,15</t>
+          <t>0,0; 18,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 0,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 0,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,82; -0,67</t>
+          <t>0,0; 14,7</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 0,7</t>
+          <t>0,0; 13,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 0,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 0,05</t>
+          <t>0,0; 10,73</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>19,54%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-37,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-37,09%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-78,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-42,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-28,35%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-39,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-65,6%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-73,9; 358,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 318,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 246,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -821,17 +821,17 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-79,52; 85,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-83,47; 67,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 31,18</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,28</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>-1,69</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>-1,07</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 3,05</t>
+          <t>-1,63; 2,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 1,47</t>
+          <t>-2,29; 1,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 1,61</t>
+          <t>-2,37; 1,15</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 5,34</t>
+          <t>-3,33; 0,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 2,02</t>
+          <t>-2,72; 0,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 2,59</t>
+          <t>-3,82; -0,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,15; 3,56</t>
+          <t>-1,8; 0,7</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 1,19</t>
+          <t>-2,28; 0,51</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 1,55</t>
+          <t>-2,33; 0,05</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>160,65%</t>
+          <t>19,54%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>-37,43%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>15,44%</t>
+          <t>-37,09%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>142,66%</t>
+          <t>-78,38%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-5,55%</t>
+          <t>-42,21%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>149,11%</t>
+          <t>-28,35%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-1,89%</t>
+          <t>-39,81%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>7,51%</t>
+          <t>-65,6%</t>
         </is>
       </c>
     </row>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-74,83; —</t>
+          <t>-73,9; 358,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1233,17 +1233,17 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 318,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-34,21; 1034,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-84,87; 483,54</t>
+          <t>-100,0; 246,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 685,38</t>
+          <t>-79,52; 85,75</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-80,09; 208,06</t>
+          <t>-83,47; 67,65</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 31,18</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,38</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,13</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,68</t>
+          <t>1,82</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,45</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,3</t>
+          <t>0,61</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,51</t>
+          <t>-3,34; 0,75</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,94; 1,59</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,34</t>
+          <t>-3,15; 1,6</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,89; 3,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,7; 1,52</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,7</t>
+          <t>-0,24; 4,95</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,69</t>
+          <t>-1,61; 1,08</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,67; 0,97</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,73</t>
+          <t>-1,08; 2,4</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-57,25%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,6%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-29,67%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>77,95%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,09%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>234,82%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-19,26%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,46%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>45,6%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 470,18</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,29 +1464,29 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,96; 237,45</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,8; 187,2</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,97; 385,12</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-1,05</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>2,28</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>1,82</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>0,08</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 0,75</t>
+          <t>-0,33; 3,05</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 1,59</t>
+          <t>-0,99; 1,47</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 1,6</t>
+          <t>-0,98; 1,61</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 3,0</t>
+          <t>-0,15; 5,34</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 1,52</t>
+          <t>-2,16; 2,02</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 4,95</t>
+          <t>-2,02; 2,59</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 1,08</t>
+          <t>0,15; 3,56</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 0,97</t>
+          <t>-1,41; 1,19</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 2,4</t>
+          <t>-1,39; 1,55</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-57,25%</t>
+          <t>160,65%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-30,6%</t>
+          <t>7,07%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-29,67%</t>
+          <t>15,44%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>77,95%</t>
+          <t>142,66%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-1,09%</t>
+          <t>-5,55%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>234,82%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-19,26%</t>
+          <t>149,11%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-22,46%</t>
+          <t>-1,89%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>45,6%</t>
+          <t>7,51%</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,83; —</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -1665,37 +1665,37 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 470,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,21; 1034,74</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,87; 483,54</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-83,96; 237,45</t>
+          <t>-2,23; 685,38</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-83,8; 187,2</t>
+          <t>-80,09; 208,06</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-60,97; 385,12</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP28_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP28_R-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,51</t>
+          <t>0,0; 23,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,69</t>
+          <t>0,0; 12,33</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 3,67</t>
+          <t>-1,76; 3,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 3,36</t>
+          <t>-1,75; 2,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 1,06</t>
+          <t>-2,8; 1,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 5,36</t>
+          <t>-0,96; 5,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 1,52</t>
+          <t>-2,53; 1,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 4,83</t>
+          <t>-1,64; 4,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 2,98</t>
+          <t>-0,94; 2,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 1,53</t>
+          <t>-1,65; 1,56</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 1,89</t>
+          <t>-1,52; 1,81</t>
         </is>
       </c>
     </row>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1037,17 +1037,17 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-55,5; 639,87</t>
+          <t>-68,58; 708,27</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 627,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 507,87</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 2,3</t>
+          <t>-1,61; 2,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 1,34</t>
+          <t>-2,25; 1,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 1,15</t>
+          <t>-2,49; 1,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 0,06</t>
+          <t>-3,08; 0,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 0,96</t>
+          <t>-2,46; 0,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,82; -0,67</t>
+          <t>-4,08; -0,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 0,7</t>
+          <t>-1,79; 0,83</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 0,51</t>
+          <t>-2,11; 0,57</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 0,05</t>
+          <t>-2,33; -0,04</t>
         </is>
       </c>
     </row>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-73,9; 358,41</t>
+          <t>-68,83; 406,06</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 318,24</t>
+          <t>-100,0; 215,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 246,91</t>
+          <t>-100,0; 291,1</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1253,17 +1253,17 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-79,52; 85,75</t>
+          <t>-77,15; 89,48</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-83,47; 67,65</t>
+          <t>-83,02; 68,63</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 31,18</t>
+          <t>-92,71; 15,33</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 0,75</t>
+          <t>-3,86; 0,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 1,59</t>
+          <t>-3,27; 1,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 1,6</t>
+          <t>-3,02; 1,71</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 3,0</t>
+          <t>-0,99; 2,77</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 1,52</t>
+          <t>-1,69; 1,55</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 4,95</t>
+          <t>-0,33; 4,94</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 1,08</t>
+          <t>-1,89; 1,02</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 0,97</t>
+          <t>-1,73; 1,06</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 2,4</t>
+          <t>-1,09; 2,52</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 470,18</t>
+          <t>-100,0; 421,23</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,22 +1464,22 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-83,96; 237,45</t>
+          <t>-87,51; 190,01</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-83,8; 187,2</t>
+          <t>-83,96; 218,46</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-60,97; 385,12</t>
+          <t>-62,33; 385,6</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 3,05</t>
+          <t>-0,32; 2,93</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 1,47</t>
+          <t>-0,99; 1,43</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 1,61</t>
+          <t>-0,98; 1,63</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 5,34</t>
+          <t>-0,67; 5,05</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 2,02</t>
+          <t>-2,39; 2,07</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 2,59</t>
+          <t>-2,15; 2,74</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,15; 3,56</t>
+          <t>0,18; 3,61</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 1,19</t>
+          <t>-1,3; 1,21</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 1,55</t>
+          <t>-1,09; 1,69</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-74,83; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -1670,32 +1670,32 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-34,21; 1034,74</t>
+          <t>-49,81; 782,82</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-84,87; 483,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-95,59; 768,21</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 685,38</t>
+          <t>-10,08; 663,3</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-80,09; 208,06</t>
+          <t>-74,75; 233,71</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,54; 390,37</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 1,52</t>
+          <t>-0,51; 1,51</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 0,65</t>
+          <t>-1,11; 0,72</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 0,67</t>
+          <t>-1,08; 0,74</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 1,88</t>
+          <t>-0,43; 1,83</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 0,61</t>
+          <t>-1,31; 0,67</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 1,37</t>
+          <t>-0,97; 1,31</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 1,36</t>
+          <t>-0,2; 1,39</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 0,42</t>
+          <t>-0,94; 0,35</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 0,63</t>
+          <t>-0,74; 0,71</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-37,97; 189,97</t>
+          <t>-37,01; 201,16</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-65,58; 98,17</t>
+          <t>-69,88; 104,31</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-67,24; 96,53</t>
+          <t>-65,57; 101,88</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-28,36; 223,74</t>
+          <t>-27,94; 214,28</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-70,93; 81,44</t>
+          <t>-70,57; 99,14</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-55,4; 162,32</t>
+          <t>-55,9; 162,74</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-12,35; 142,12</t>
+          <t>-13,89; 153,48</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-56,02; 48,87</t>
+          <t>-55,31; 40,2</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-48,2; 67,69</t>
+          <t>-47,44; 79,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP28_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP28_R-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,84</t>
+          <t>0,0; 23,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,34</t>
+          <t>0,0; 19,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,7</t>
+          <t>0,0; 17,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,33</t>
+          <t>0,0; 10,21</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,73</t>
+          <t>0,0; 10,6</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 3,21</t>
+          <t>-1,78; 3,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 2,95</t>
+          <t>-1,9; 2,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 1,11</t>
+          <t>-2,55; 1,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 5,37</t>
+          <t>-1,03; 4,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 1,49</t>
+          <t>-2,2; 1,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 4,84</t>
+          <t>-1,62; 4,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 2,93</t>
+          <t>-0,69; 3,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 1,56</t>
+          <t>-1,6; 1,46</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 1,81</t>
+          <t>-1,56; 1,88</t>
         </is>
       </c>
     </row>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1037,12 +1037,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-68,58; 708,27</t>
+          <t>-61,85; 737,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 461,61</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 2,31</t>
+          <t>-1,63; 2,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 1,32</t>
+          <t>-2,25; 1,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 1,05</t>
+          <t>-2,55; 1,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 0,07</t>
+          <t>-3,14; 0,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 0,98</t>
+          <t>-2,7; 1,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,08; -0,67</t>
+          <t>-3,71; -0,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 0,83</t>
+          <t>-1,8; 0,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 0,57</t>
+          <t>-1,94; 0,56</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,33; -0,04</t>
+          <t>-2,46; 0,05</t>
         </is>
       </c>
     </row>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-68,83; 406,06</t>
+          <t>-75,48; 346,46</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1233,17 +1233,17 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 215,68</t>
+          <t>-100,0; 279,72</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 127,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 291,1</t>
+          <t>-100,0; 378,31</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-77,15; 89,48</t>
+          <t>-78,08; 110,43</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-83,02; 68,63</t>
+          <t>-83,85; 67,6</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-92,71; 15,33</t>
+          <t>-92,43; 36,94</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 0,71</t>
+          <t>-3,81; 0,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 1,47</t>
+          <t>-3,3; 1,56</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 1,71</t>
+          <t>-3,01; 1,5</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 2,77</t>
+          <t>-1,04; 2,91</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 1,55</t>
+          <t>-1,58; 1,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 4,94</t>
+          <t>-0,19; 5,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 1,02</t>
+          <t>-1,78; 1,27</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 1,06</t>
+          <t>-1,63; 1,11</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 2,52</t>
+          <t>-0,98; 2,45</t>
         </is>
       </c>
     </row>
@@ -1444,12 +1444,12 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 304,86</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 421,23</t>
+          <t>-100,0; 407,59</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1469,17 +1469,17 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-87,51; 190,01</t>
+          <t>-82,85; 238,4</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-83,96; 218,46</t>
+          <t>-83,89; 240,9</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-62,33; 385,6</t>
+          <t>-58,88; 441,83</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 2,93</t>
+          <t>-0,63; 2,97</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 1,43</t>
+          <t>-0,99; 1,44</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 1,63</t>
+          <t>-1,0; 1,7</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 5,05</t>
+          <t>-0,41; 5,56</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 2,07</t>
+          <t>-2,3; 1,94</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 2,74</t>
+          <t>-2,13; 2,68</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,18; 3,61</t>
+          <t>0,14; 3,34</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 1,21</t>
+          <t>-1,42; 1,14</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 1,69</t>
+          <t>-1,13; 1,71</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -1670,32 +1670,32 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-49,81; 782,82</t>
+          <t>-37,73; 856,09</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,0; 349,24</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-95,59; 768,21</t>
+          <t>-97,49; 478,17</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-10,08; 663,3</t>
+          <t>-9,66; 573,53</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-74,75; 233,71</t>
+          <t>-79,65; 224,93</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-71,54; 390,37</t>
+          <t>-74,13; 328,95</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 1,51</t>
+          <t>-0,52; 1,48</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 0,72</t>
+          <t>-1,12; 0,68</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 0,74</t>
+          <t>-1,09; 0,72</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 1,83</t>
+          <t>-0,41; 1,92</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 0,67</t>
+          <t>-1,37; 0,52</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 1,31</t>
+          <t>-0,89; 1,36</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 1,39</t>
+          <t>-0,18; 1,34</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 0,35</t>
+          <t>-0,99; 0,33</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 0,71</t>
+          <t>-0,72; 0,71</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-37,01; 201,16</t>
+          <t>-33,18; 226,04</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-69,88; 104,31</t>
+          <t>-68,7; 96,66</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-65,57; 101,88</t>
+          <t>-64,58; 114,04</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-27,94; 214,28</t>
+          <t>-27,47; 231,41</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-70,57; 99,14</t>
+          <t>-69,76; 74,28</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-55,9; 162,74</t>
+          <t>-52,64; 167,17</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-13,89; 153,48</t>
+          <t>-13,35; 140,8</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-55,31; 40,2</t>
+          <t>-59,45; 38,83</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-47,44; 79,16</t>
+          <t>-45,85; 75,98</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP28_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP28_R-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,38</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,13</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,68</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,45</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,3</t>
+          <t>0,51</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,98</t>
+          <t>-0,81; 4,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,84; 1,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,73</t>
+          <t>-1,0; 4,48</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,78; 4,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,57; 2,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,67</t>
+          <t>-2,01; 1,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,21</t>
+          <t>-0,22; 3,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,4; 1,25</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,6</t>
+          <t>-0,95; 2,33</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>147,02%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,58%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>124,99%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>131,54%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,42%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-1,51%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>138,7%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,61%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>54,78%</t>
         </is>
       </c>
     </row>
@@ -821,24 +821,24 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,05; 852,18</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 309,77</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,54; 656,5</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>-1,69</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0,31</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>-0,59</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,53</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-0,41</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>-1,08</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 3,38</t>
+          <t>-3,33; 0,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 2,89</t>
+          <t>-2,72; 0,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 1,17</t>
+          <t>-3,82; -0,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 4,84</t>
+          <t>-1,63; 2,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 1,55</t>
+          <t>-2,29; 1,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 4,44</t>
+          <t>-2,45; 1,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 3,04</t>
+          <t>-1,8; 0,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 1,46</t>
+          <t>-2,28; 0,51</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 1,88</t>
+          <t>-2,35; 0,01</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>55,71%</t>
+          <t>-78,38%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,67%</t>
+          <t>-42,21%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-51,6%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>140,27%</t>
+          <t>19,54%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-37,21%</t>
+          <t>-37,43%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>71,62%</t>
+          <t>-39,28%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>95,02%</t>
+          <t>-28,35%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-8,25%</t>
+          <t>-39,81%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>-66,37%</t>
         </is>
       </c>
     </row>
@@ -1012,49 +1012,49 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 246,91</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>-73,9; 358,41</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 319,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-61,85; 737,26</t>
+          <t>-79,52; 85,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 461,61</t>
+          <t>-83,47; 67,65</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 27,09</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,32</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,69</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>0,46</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 2,33</t>
+          <t>-0,89; 3,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 1,03</t>
+          <t>-1,7; 1,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 1,21</t>
+          <t>-0,58; 4,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 0,05</t>
+          <t>-3,34; 0,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 1,0</t>
+          <t>-2,94; 1,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,71; -0,67</t>
+          <t>-3,18; 1,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 0,89</t>
+          <t>-1,61; 1,08</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 0,56</t>
+          <t>-1,67; 0,97</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 0,05</t>
+          <t>-1,16; 2,16</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>19,54%</t>
+          <t>77,95%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-37,43%</t>
+          <t>-1,09%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-37,09%</t>
+          <t>196,33%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-78,38%</t>
+          <t>-57,25%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-42,21%</t>
+          <t>-30,6%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-31,4%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-28,35%</t>
+          <t>-19,26%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-39,81%</t>
+          <t>-22,46%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-65,6%</t>
+          <t>34,35%</t>
         </is>
       </c>
     </row>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-75,48; 346,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1233,44 +1233,44 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 279,72</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 127,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 378,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 454,36</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-78,08; 110,43</t>
+          <t>-83,96; 237,45</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-83,85; 67,6</t>
+          <t>-83,8; 187,2</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-92,43; 36,94</t>
+          <t>-64,52; 341,34</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,05</t>
+          <t>2,28</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,82</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>0,08</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 0,71</t>
+          <t>-0,15; 5,34</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 1,56</t>
+          <t>-2,16; 2,02</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 1,5</t>
+          <t>-2,01; 2,6</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 2,91</t>
+          <t>-0,33; 3,05</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 1,53</t>
+          <t>-0,99; 1,47</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 5,0</t>
+          <t>-0,99; 1,67</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 1,27</t>
+          <t>0,15; 3,56</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 1,11</t>
+          <t>-1,41; 1,19</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 2,45</t>
+          <t>-1,38; 1,52</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-57,25%</t>
+          <t>142,66%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-30,6%</t>
+          <t>-5,55%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-29,67%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>77,95%</t>
+          <t>160,65%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-1,09%</t>
+          <t>7,07%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>234,82%</t>
+          <t>18,35%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-19,26%</t>
+          <t>149,11%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-22,46%</t>
+          <t>-1,89%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>45,6%</t>
+          <t>7,3%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>-34,21; 1034,74</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>-84,87; 483,54</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 304,86</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 407,59</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>-74,83; —</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H19" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-2,23; 685,38</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-80,09; 208,06</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>-82,85; 238,4</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>-83,89; 240,9</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>-58,88; 441,83</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>2,28</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>-0,08</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 2,97</t>
+          <t>-0,39; 1,88</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 1,44</t>
+          <t>-1,28; 0,61</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 1,7</t>
+          <t>-1,0; 1,27</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 5,56</t>
+          <t>-0,58; 1,52</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 1,94</t>
+          <t>-1,17; 0,65</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 2,68</t>
+          <t>-1,09; 0,65</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,14; 3,34</t>
+          <t>-0,16; 1,36</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 1,14</t>
+          <t>-0,86; 0,42</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 1,71</t>
+          <t>-0,81; 0,58</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>160,65%</t>
+          <t>53,31%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>-23,6%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>15,44%</t>
+          <t>9,32%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>142,66%</t>
+          <t>34,55%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-5,55%</t>
+          <t>-18,93%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>-20,2%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>149,11%</t>
+          <t>43,95%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-1,89%</t>
+          <t>-21,27%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>7,51%</t>
+          <t>-6,05%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-28,36; 223,74</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,93; 81,44</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,6; 145,41</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-37,73; 856,09</t>
+          <t>-37,97; 189,97</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-86,0; 349,24</t>
+          <t>-65,58; 98,17</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-97,49; 478,17</t>
+          <t>-66,68; 90,76</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-9,66; 573,53</t>
+          <t>-12,35; 142,12</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-79,65; 224,93</t>
+          <t>-56,02; 48,87</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-74,13; 328,95</t>
+          <t>-50,67; 62,43</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>0,43</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-0,23</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-0,24</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>0,7</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-0,31</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>0,16</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>0,56</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>-0,27</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-0,05</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-0,52; 1,48</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-1,12; 0,68</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-1,09; 0,72</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-0,41; 1,92</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-1,37; 0,52</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-0,89; 1,36</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-0,18; 1,34</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-0,99; 0,33</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-0,72; 0,71</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>34,55%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-18,93%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-19,48%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>53,31%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-23,6%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>12,13%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>43,95%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>-21,27%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-4,04%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-33,18; 226,04</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-68,7; 96,66</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-64,58; 114,04</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-27,47; 231,41</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-69,76; 74,28</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-52,64; 167,17</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-13,35; 140,8</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-59,45; 38,83</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-45,85; 75,98</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
